--- a/Collection-Statistics.xlsx
+++ b/Collection-Statistics.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariisichoix/art-engine-py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F636B07-6828-9F4C-A130-B67EAF27CB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0CCF57-B79D-5145-8CFB-EE9D5C8F12D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{859EF6C4-A21B-F141-8A3A-A7971D06E2CB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20100" xr2:uid="{859EF6C4-A21B-F141-8A3A-A7971D06E2CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="443">
   <si>
     <t>GROUPS</t>
   </si>
@@ -1361,6 +1361,9 @@
   </si>
   <si>
     <t>difference</t>
+  </si>
+  <si>
+    <t>unit_diff</t>
   </si>
 </sst>
 </file>
@@ -1763,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A3D331-BDA4-C442-A41C-EAA25C1F3630}">
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1778,10 +1781,11 @@
     <col min="5" max="5" width="12.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="10.83203125" style="3"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1803,8 +1807,11 @@
       <c r="G1" s="4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1826,8 +1833,12 @@
       <c r="G2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="3">
+        <f>E2-F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1849,8 +1860,12 @@
       <c r="G3" s="5">
         <v>5.5834729201564804E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H66" si="0">E3-F3</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1872,8 +1887,12 @@
       <c r="G4" s="5">
         <v>6.4557779212392997E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1895,8 +1914,12 @@
       <c r="G5" s="5">
         <v>1.7211703958691601E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1918,8 +1941,12 @@
       <c r="G6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1941,8 +1968,12 @@
       <c r="G7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1964,8 +1995,12 @@
       <c r="G8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1987,8 +2022,12 @@
       <c r="G9" s="5">
         <v>-8.6956521739129898E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2010,8 +2049,12 @@
       <c r="G10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -2033,8 +2076,12 @@
       <c r="G11" s="5">
         <v>9.9999999999999895E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -2056,8 +2103,12 @@
       <c r="G12" s="5">
         <v>9.9999999999999895E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -2079,8 +2130,12 @@
       <c r="G13" s="5">
         <v>9.9999999999999895E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -2102,8 +2157,12 @@
       <c r="G14" s="5">
         <v>9.9999999999999895E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -2125,8 +2184,12 @@
       <c r="G15" s="5">
         <v>0.19999999999999901</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -2148,8 +2211,12 @@
       <c r="G16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -2171,8 +2238,12 @@
       <c r="G17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -2194,8 +2265,12 @@
       <c r="G18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -2217,8 +2292,12 @@
       <c r="G19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -2240,8 +2319,12 @@
       <c r="G20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -2263,8 +2346,12 @@
       <c r="G21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -2286,8 +2373,12 @@
       <c r="G22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
@@ -2309,8 +2400,12 @@
       <c r="G23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
@@ -2332,8 +2427,12 @@
       <c r="G24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -2355,8 +2454,12 @@
       <c r="G25" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -2378,8 +2481,12 @@
       <c r="G26" s="5">
         <v>6.6666666666666596E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -2401,8 +2508,12 @@
       <c r="G27" s="5">
         <v>6.6666666666666596E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -2424,8 +2535,12 @@
       <c r="G28" s="5">
         <v>9.9999999999999895E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -2447,8 +2562,12 @@
       <c r="G29" s="5">
         <v>0.33333333333333298</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
@@ -2470,8 +2589,12 @@
       <c r="G30" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
@@ -2493,8 +2616,12 @@
       <c r="G31" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>63</v>
       </c>
@@ -2516,8 +2643,12 @@
       <c r="G32" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>63</v>
       </c>
@@ -2539,8 +2670,12 @@
       <c r="G33" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>63</v>
       </c>
@@ -2562,8 +2697,12 @@
       <c r="G34" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
@@ -2585,8 +2724,12 @@
       <c r="G35" s="5">
         <v>2.0618556701030798E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>63</v>
       </c>
@@ -2608,8 +2751,12 @@
       <c r="G36" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
@@ -2631,8 +2778,12 @@
       <c r="G37" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>63</v>
       </c>
@@ -2654,8 +2805,12 @@
       <c r="G38" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>63</v>
       </c>
@@ -2677,8 +2832,12 @@
       <c r="G39" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>63</v>
       </c>
@@ -2700,8 +2859,12 @@
       <c r="G40" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>63</v>
       </c>
@@ -2723,8 +2886,12 @@
       <c r="G41" s="5">
         <v>1.0869565217391301E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>63</v>
       </c>
@@ -2746,8 +2913,12 @@
       <c r="G42" s="5">
         <v>1.0869565217391301E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>63</v>
       </c>
@@ -2769,8 +2940,12 @@
       <c r="G43" s="5">
         <v>1.0869565217391301E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>63</v>
       </c>
@@ -2792,8 +2967,12 @@
       <c r="G44" s="5">
         <v>0.19999999999999901</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>63</v>
       </c>
@@ -2815,8 +2994,12 @@
       <c r="G45" s="5">
         <v>0.19999999999999901</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>63</v>
       </c>
@@ -2838,8 +3021,12 @@
       <c r="G46" s="5">
         <v>0.19999999999999901</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
@@ -2861,8 +3048,12 @@
       <c r="G47" s="5">
         <v>0.19999999999999901</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>100</v>
       </c>
@@ -2884,8 +3075,12 @@
       <c r="G48" s="5">
         <v>5.1546391752577102E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>100</v>
       </c>
@@ -2907,8 +3102,12 @@
       <c r="G49" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>100</v>
       </c>
@@ -2930,8 +3129,12 @@
       <c r="G50" s="5">
         <v>5.1546391752577102E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>100</v>
       </c>
@@ -2953,8 +3156,12 @@
       <c r="G51" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>100</v>
       </c>
@@ -2976,8 +3183,12 @@
       <c r="G52" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>100</v>
       </c>
@@ -2999,8 +3210,12 @@
       <c r="G53" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>100</v>
       </c>
@@ -3022,8 +3237,12 @@
       <c r="G54" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>100</v>
       </c>
@@ -3045,8 +3264,12 @@
       <c r="G55" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>100</v>
       </c>
@@ -3068,8 +3291,12 @@
       <c r="G56" s="5">
         <v>5.1546391752577102E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>100</v>
       </c>
@@ -3091,8 +3318,12 @@
       <c r="G57" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>100</v>
       </c>
@@ -3114,8 +3345,12 @@
       <c r="G58" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>100</v>
       </c>
@@ -3137,8 +3372,12 @@
       <c r="G59" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>100</v>
       </c>
@@ -3160,8 +3399,12 @@
       <c r="G60" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>100</v>
       </c>
@@ -3183,8 +3426,12 @@
       <c r="G61" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>129</v>
       </c>
@@ -3206,8 +3453,12 @@
       <c r="G62" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>129</v>
       </c>
@@ -3229,8 +3480,12 @@
       <c r="G63" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>129</v>
       </c>
@@ -3252,8 +3507,12 @@
       <c r="G64" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
@@ -3275,8 +3534,12 @@
       <c r="G65" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>129</v>
       </c>
@@ -3298,8 +3561,12 @@
       <c r="G66" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>129</v>
       </c>
@@ -3321,8 +3588,12 @@
       <c r="G67" s="5">
         <v>1.3605442176870699E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67" s="3">
+        <f t="shared" ref="H67:H130" si="1">E67-F67</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>129</v>
       </c>
@@ -3344,8 +3615,12 @@
       <c r="G68" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>129</v>
       </c>
@@ -3367,8 +3642,12 @@
       <c r="G69" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>129</v>
       </c>
@@ -3390,8 +3669,12 @@
       <c r="G70" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>129</v>
       </c>
@@ -3413,8 +3696,12 @@
       <c r="G71" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>129</v>
       </c>
@@ -3436,8 +3723,12 @@
       <c r="G72" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>129</v>
       </c>
@@ -3459,8 +3750,12 @@
       <c r="G73" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>129</v>
       </c>
@@ -3482,8 +3777,12 @@
       <c r="G74" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>129</v>
       </c>
@@ -3505,8 +3804,12 @@
       <c r="G75" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>129</v>
       </c>
@@ -3528,8 +3831,12 @@
       <c r="G76" s="5">
         <v>5.1546391752577102E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>129</v>
       </c>
@@ -3551,8 +3858,12 @@
       <c r="G77" s="5">
         <v>5.1546391752577102E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>129</v>
       </c>
@@ -3574,8 +3885,12 @@
       <c r="G78" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>129</v>
       </c>
@@ -3597,8 +3912,12 @@
       <c r="G79" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>129</v>
       </c>
@@ -3620,8 +3939,12 @@
       <c r="G80" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>129</v>
       </c>
@@ -3643,8 +3966,12 @@
       <c r="G81" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>170</v>
       </c>
@@ -3666,8 +3993,12 @@
       <c r="G82" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>170</v>
       </c>
@@ -3689,8 +4020,12 @@
       <c r="G83" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>170</v>
       </c>
@@ -3712,8 +4047,12 @@
       <c r="G84" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>170</v>
       </c>
@@ -3735,8 +4074,12 @@
       <c r="G85" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>170</v>
       </c>
@@ -3758,8 +4101,12 @@
       <c r="G86" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>170</v>
       </c>
@@ -3781,8 +4128,12 @@
       <c r="G87" s="5">
         <v>2.04081632653061E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87" s="3">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>170</v>
       </c>
@@ -3804,8 +4155,12 @@
       <c r="G88" s="5">
         <v>6.8493150684931703E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>170</v>
       </c>
@@ -3827,8 +4182,12 @@
       <c r="G89" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>170</v>
       </c>
@@ -3850,8 +4209,12 @@
       <c r="G90" s="5">
         <v>0.19999999999999901</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>170</v>
       </c>
@@ -3873,8 +4236,12 @@
       <c r="G91" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>170</v>
       </c>
@@ -3896,8 +4263,12 @@
       <c r="G92" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>170</v>
       </c>
@@ -3919,8 +4290,12 @@
       <c r="G93" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>170</v>
       </c>
@@ -3942,8 +4317,12 @@
       <c r="G94" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>170</v>
       </c>
@@ -3965,8 +4344,12 @@
       <c r="G95" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>170</v>
       </c>
@@ -3988,8 +4371,12 @@
       <c r="G96" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>170</v>
       </c>
@@ -4011,8 +4398,12 @@
       <c r="G97" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>170</v>
       </c>
@@ -4034,8 +4425,12 @@
       <c r="G98" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>170</v>
       </c>
@@ -4057,8 +4452,12 @@
       <c r="G99" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>170</v>
       </c>
@@ -4080,8 +4479,12 @@
       <c r="G100" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>170</v>
       </c>
@@ -4103,8 +4506,12 @@
       <c r="G101" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>170</v>
       </c>
@@ -4126,8 +4533,12 @@
       <c r="G102" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>170</v>
       </c>
@@ -4149,8 +4560,12 @@
       <c r="G103" s="5">
         <v>6.8493150684931703E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>170</v>
       </c>
@@ -4172,8 +4587,12 @@
       <c r="G104" s="5">
         <v>6.8493150684931703E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>170</v>
       </c>
@@ -4195,8 +4614,12 @@
       <c r="G105" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>170</v>
       </c>
@@ -4218,8 +4641,12 @@
       <c r="G106" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>170</v>
       </c>
@@ -4241,8 +4668,12 @@
       <c r="G107" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>170</v>
       </c>
@@ -4264,8 +4695,12 @@
       <c r="G108" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>170</v>
       </c>
@@ -4287,8 +4722,12 @@
       <c r="G109" s="5">
         <v>2.04081632653061E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>170</v>
       </c>
@@ -4310,8 +4749,12 @@
       <c r="G110" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>170</v>
       </c>
@@ -4333,8 +4776,12 @@
       <c r="G111" s="5">
         <v>2.27272727272727E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>170</v>
       </c>
@@ -4356,8 +4803,12 @@
       <c r="G112" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>170</v>
       </c>
@@ -4379,8 +4830,12 @@
       <c r="G113" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>170</v>
       </c>
@@ -4402,8 +4857,12 @@
       <c r="G114" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>170</v>
       </c>
@@ -4425,8 +4884,12 @@
       <c r="G115" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>170</v>
       </c>
@@ -4448,8 +4911,12 @@
       <c r="G116" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>170</v>
       </c>
@@ -4471,8 +4938,12 @@
       <c r="G117" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>170</v>
       </c>
@@ -4494,8 +4965,12 @@
       <c r="G118" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>170</v>
       </c>
@@ -4517,8 +4992,12 @@
       <c r="G119" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>170</v>
       </c>
@@ -4540,8 +5019,12 @@
       <c r="G120" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>170</v>
       </c>
@@ -4563,8 +5046,12 @@
       <c r="G121" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>170</v>
       </c>
@@ -4586,8 +5073,12 @@
       <c r="G122" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>170</v>
       </c>
@@ -4609,8 +5100,12 @@
       <c r="G123" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>170</v>
       </c>
@@ -4632,8 +5127,12 @@
       <c r="G124" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>170</v>
       </c>
@@ -4655,8 +5154,12 @@
       <c r="G125" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>170</v>
       </c>
@@ -4678,8 +5181,12 @@
       <c r="G126" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>170</v>
       </c>
@@ -4701,8 +5208,12 @@
       <c r="G127" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>170</v>
       </c>
@@ -4724,8 +5235,12 @@
       <c r="G128" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>170</v>
       </c>
@@ -4747,8 +5262,12 @@
       <c r="G129" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>170</v>
       </c>
@@ -4770,8 +5289,12 @@
       <c r="G130" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>170</v>
       </c>
@@ -4793,8 +5316,12 @@
       <c r="G131" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131" s="3">
+        <f t="shared" ref="H131:H194" si="2">E131-F131</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>170</v>
       </c>
@@ -4816,8 +5343,12 @@
       <c r="G132" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>170</v>
       </c>
@@ -4839,8 +5370,12 @@
       <c r="G133" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>275</v>
       </c>
@@ -4862,8 +5397,12 @@
       <c r="G134" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>275</v>
       </c>
@@ -4885,8 +5424,12 @@
       <c r="G135" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>275</v>
       </c>
@@ -4908,8 +5451,12 @@
       <c r="G136" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>275</v>
       </c>
@@ -4931,8 +5478,12 @@
       <c r="G137" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>275</v>
       </c>
@@ -4954,8 +5505,12 @@
       <c r="G138" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>275</v>
       </c>
@@ -4977,8 +5532,12 @@
       <c r="G139" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>275</v>
       </c>
@@ -5000,8 +5559,12 @@
       <c r="G140" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>275</v>
       </c>
@@ -5023,8 +5586,12 @@
       <c r="G141" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>275</v>
       </c>
@@ -5046,8 +5613,12 @@
       <c r="G142" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>275</v>
       </c>
@@ -5069,8 +5640,12 @@
       <c r="G143" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>275</v>
       </c>
@@ -5092,8 +5667,12 @@
       <c r="G144" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>275</v>
       </c>
@@ -5115,8 +5694,12 @@
       <c r="G145" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>275</v>
       </c>
@@ -5138,8 +5721,12 @@
       <c r="G146" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>275</v>
       </c>
@@ -5161,8 +5748,12 @@
       <c r="G147" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H147" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>275</v>
       </c>
@@ -5184,8 +5775,12 @@
       <c r="G148" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H148" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>275</v>
       </c>
@@ -5207,8 +5802,12 @@
       <c r="G149" s="5">
         <v>5.1546391752577102E-3</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H149" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>275</v>
       </c>
@@ -5230,8 +5829,12 @@
       <c r="G150" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H150" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>275</v>
       </c>
@@ -5253,8 +5856,12 @@
       <c r="G151" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>275</v>
       </c>
@@ -5276,8 +5883,12 @@
       <c r="G152" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>275</v>
       </c>
@@ -5299,8 +5910,12 @@
       <c r="G153" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H153" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>275</v>
       </c>
@@ -5322,8 +5937,12 @@
       <c r="G154" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H154" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>275</v>
       </c>
@@ -5345,8 +5964,12 @@
       <c r="G155" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>275</v>
       </c>
@@ -5368,8 +5991,12 @@
       <c r="G156" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H156" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>275</v>
       </c>
@@ -5391,8 +6018,12 @@
       <c r="G157" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H157" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>275</v>
       </c>
@@ -5414,8 +6045,12 @@
       <c r="G158" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H158" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>326</v>
       </c>
@@ -5437,8 +6072,12 @@
       <c r="G159" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>326</v>
       </c>
@@ -5460,8 +6099,12 @@
       <c r="G160" s="5">
         <v>5.1546391752577102E-3</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H160" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>326</v>
       </c>
@@ -5483,8 +6126,12 @@
       <c r="G161" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H161" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>326</v>
       </c>
@@ -5506,8 +6153,12 @@
       <c r="G162" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H162" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>326</v>
       </c>
@@ -5529,8 +6180,12 @@
       <c r="G163" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H163" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>326</v>
       </c>
@@ -5552,8 +6207,12 @@
       <c r="G164" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H164" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>326</v>
       </c>
@@ -5575,8 +6234,12 @@
       <c r="G165" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H165" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>326</v>
       </c>
@@ -5598,8 +6261,12 @@
       <c r="G166" s="5">
         <v>-6.9444444444444198E-3</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H166" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>326</v>
       </c>
@@ -5621,8 +6288,12 @@
       <c r="G167" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H167" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>326</v>
       </c>
@@ -5644,8 +6315,12 @@
       <c r="G168" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H168" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>326</v>
       </c>
@@ -5667,8 +6342,12 @@
       <c r="G169" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H169" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>326</v>
       </c>
@@ -5690,8 +6369,12 @@
       <c r="G170" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H170" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>326</v>
       </c>
@@ -5713,8 +6396,12 @@
       <c r="G171" s="5">
         <v>5.1546391752577102E-3</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H171" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>326</v>
       </c>
@@ -5736,8 +6423,12 @@
       <c r="G172" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H172" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>326</v>
       </c>
@@ -5759,8 +6450,12 @@
       <c r="G173" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H173" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>326</v>
       </c>
@@ -5782,8 +6477,12 @@
       <c r="G174" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H174" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>326</v>
       </c>
@@ -5805,8 +6504,12 @@
       <c r="G175" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H175" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>326</v>
       </c>
@@ -5828,8 +6531,12 @@
       <c r="G176" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H176" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>326</v>
       </c>
@@ -5851,8 +6558,12 @@
       <c r="G177" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H177" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>326</v>
       </c>
@@ -5874,8 +6585,12 @@
       <c r="G178" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H178" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>326</v>
       </c>
@@ -5897,8 +6612,12 @@
       <c r="G179" s="5">
         <v>7.9365079365078996E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H179" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>326</v>
       </c>
@@ -5920,8 +6639,12 @@
       <c r="G180" s="5">
         <v>6.6666666666666596E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H180" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>326</v>
       </c>
@@ -5943,8 +6666,12 @@
       <c r="G181" s="5">
         <v>6.6666666666666596E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H181" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>326</v>
       </c>
@@ -5966,8 +6693,12 @@
       <c r="G182" s="5">
         <v>0.19999999999999901</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H182" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>326</v>
       </c>
@@ -5989,8 +6720,12 @@
       <c r="G183" s="5">
         <v>9.9999999999999895E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H183" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>326</v>
       </c>
@@ -6012,8 +6747,12 @@
       <c r="G184" s="5">
         <v>9.9999999999999895E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H184" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>326</v>
       </c>
@@ -6035,8 +6774,12 @@
       <c r="G185" s="5">
         <v>9.9999999999999895E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H185" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>326</v>
       </c>
@@ -6058,8 +6801,12 @@
       <c r="G186" s="5">
         <v>9.9999999999999895E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H186" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>326</v>
       </c>
@@ -6081,8 +6828,12 @@
       <c r="G187" s="5">
         <v>0.19999999999999901</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H187" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>326</v>
       </c>
@@ -6104,8 +6855,12 @@
       <c r="G188" s="5">
         <v>9.9999999999999895E-2</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H188" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>326</v>
       </c>
@@ -6127,8 +6882,12 @@
       <c r="G189" s="5">
         <v>9.9999999999999895E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H189" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>326</v>
       </c>
@@ -6150,8 +6909,12 @@
       <c r="G190" s="5">
         <v>9.9999999999999895E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H190" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>326</v>
       </c>
@@ -6173,8 +6936,12 @@
       <c r="G191" s="5">
         <v>0.19999999999999901</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H191" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>326</v>
       </c>
@@ -6196,8 +6963,12 @@
       <c r="G192" s="5">
         <v>0.19999999999999901</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H192" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>395</v>
       </c>
@@ -6219,8 +6990,12 @@
       <c r="G193" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H193" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>395</v>
       </c>
@@ -6242,8 +7017,12 @@
       <c r="G194" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H194" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>395</v>
       </c>
@@ -6265,8 +7044,12 @@
       <c r="G195" s="5">
         <v>6.8493150684931703E-3</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H195" s="3">
+        <f t="shared" ref="H195:H213" si="3">E195-F195</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>395</v>
       </c>
@@ -6288,8 +7071,12 @@
       <c r="G196" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H196" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>395</v>
       </c>
@@ -6311,8 +7098,12 @@
       <c r="G197" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H197" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>395</v>
       </c>
@@ -6334,8 +7125,12 @@
       <c r="G198" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H198" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>395</v>
       </c>
@@ -6357,8 +7152,12 @@
       <c r="G199" s="5">
         <v>6.6666666666666596E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H199" s="3">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>395</v>
       </c>
@@ -6380,8 +7179,12 @@
       <c r="G200" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H200" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>395</v>
       </c>
@@ -6403,8 +7206,12 @@
       <c r="G201" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H201" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>395</v>
       </c>
@@ -6426,8 +7233,12 @@
       <c r="G202" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H202" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>395</v>
       </c>
@@ -6449,8 +7260,12 @@
       <c r="G203" s="5">
         <v>6.8493150684931703E-3</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H203" s="3">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>395</v>
       </c>
@@ -6472,8 +7287,12 @@
       <c r="G204" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H204" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>420</v>
       </c>
@@ -6495,8 +7314,12 @@
       <c r="G205" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H205" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>420</v>
       </c>
@@ -6518,8 +7341,12 @@
       <c r="G206" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H206" s="3">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>420</v>
       </c>
@@ -6541,8 +7368,12 @@
       <c r="G207" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H207" s="3">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>420</v>
       </c>
@@ -6564,8 +7395,12 @@
       <c r="G208" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H208" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>420</v>
       </c>
@@ -6587,8 +7422,12 @@
       <c r="G209" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H209" s="3">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>420</v>
       </c>
@@ -6610,8 +7449,12 @@
       <c r="G210" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H210" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>420</v>
       </c>
@@ -6633,8 +7476,12 @@
       <c r="G211" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H211" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>420</v>
       </c>
@@ -6656,8 +7503,12 @@
       <c r="G212" s="5">
         <v>1.03092783505154E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H212" s="3">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>420</v>
       </c>
@@ -6678,6 +7529,10 @@
       </c>
       <c r="G213" s="5">
         <v>1.03092783505154E-2</v>
+      </c>
+      <c r="H213" s="3">
+        <f t="shared" si="3"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
